--- a/Verifikasi Akun - ATS-11.xlsx
+++ b/Verifikasi Akun - ATS-11.xlsx
@@ -53,7 +53,7 @@
     <t>nikShort</t>
   </si>
   <si>
-    <t>pending</t>
+    <t>back</t>
   </si>
 </sst>
 </file>
@@ -374,10 +374,14 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -427,6 +431,9 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1234</v>
+      </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>

--- a/Verifikasi Akun - ATS-11.xlsx
+++ b/Verifikasi Akun - ATS-11.xlsx
@@ -2,19 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lieto\git\ACC-Seamless-ACCOne\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hari Sapto\git\ACC-ACCOne\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8235"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="8232"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>nik</t>
   </si>
@@ -54,12 +54,42 @@
   </si>
   <si>
     <t>back</t>
+  </si>
+  <si>
+    <t>ktp</t>
+  </si>
+  <si>
+    <t>selfie</t>
+  </si>
+  <si>
+    <t>npwp</t>
+  </si>
+  <si>
+    <t>kk</t>
+  </si>
+  <si>
+    <t>success</t>
+  </si>
+  <si>
+    <t>selfie.png</t>
+  </si>
+  <si>
+    <t>npwp.png</t>
+  </si>
+  <si>
+    <t>ktp.png</t>
+  </si>
+  <si>
+    <t>kk.png</t>
+  </si>
+  <si>
+    <t>nikEmpty2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -89,8 +119,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -371,19 +402,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -396,8 +429,20 @@
       <c r="D1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -408,7 +453,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>7</v>
       </c>
@@ -419,7 +464,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -430,12 +475,46 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1234</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>1234567890123450</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Verifikasi Akun - ATS-11.xlsx
+++ b/Verifikasi Akun - ATS-11.xlsx
@@ -2,19 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hari Sapto\git\ACC-ACCOne\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lieto\git\ACC-Seamless-ACCOne\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="8232"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8235"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>nik</t>
   </si>
@@ -54,42 +54,12 @@
   </si>
   <si>
     <t>back</t>
-  </si>
-  <si>
-    <t>ktp</t>
-  </si>
-  <si>
-    <t>selfie</t>
-  </si>
-  <si>
-    <t>npwp</t>
-  </si>
-  <si>
-    <t>kk</t>
-  </si>
-  <si>
-    <t>success</t>
-  </si>
-  <si>
-    <t>selfie.png</t>
-  </si>
-  <si>
-    <t>npwp.png</t>
-  </si>
-  <si>
-    <t>ktp.png</t>
-  </si>
-  <si>
-    <t>kk.png</t>
-  </si>
-  <si>
-    <t>nikEmpty2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -119,9 +89,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,21 +371,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -429,20 +396,8 @@
       <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -453,7 +408,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>7</v>
       </c>
@@ -464,7 +419,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -475,46 +430,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1234</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>1234567890123450</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
